--- a/data/درجات الطلاب.xlsx
+++ b/data/درجات الطلاب.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1A132C-3B9A-4771-9B9C-61793392DA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F4F246-45D2-4BFA-ACB6-72E1D1CB2B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C644676-0F57-4253-9BE3-47CEAFCD4C82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>civil</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>بدر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جاسم زعابي </t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2FE119-CD16-4E31-9427-C2DED7072BED}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,6 +575,23 @@
         <v>80</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="20" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>90</v>
+      </c>
+      <c r="D7" s="2">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
